--- a/Assets/ExcelDatas/SkillEnchantData.xlsx
+++ b/Assets/ExcelDatas/SkillEnchantData.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{66D0EBDF-11B3-42BC-8807-F71253755D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D73E538-F70C-49E5-B725-C60D1E25381F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DE0350-3497-466A-A06E-4CB3AD153254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Define" sheetId="7" r:id="rId1"/>
+    <sheet name="Define" sheetId="7" state="hidden" r:id="rId1"/>
     <sheet name="SkillEnchantTable" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>ALL</t>
   </si>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets\SPUM\Retro UI Set\1_UI_Images\Theme1\02_Icons\0_Flat\Icon_Flat__19.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>충만한마나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,14 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets\SPUM\Retro UI Set\1_UI_Images\Theme1\02_Icons\0_Flat\Icon_Flat__18.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets\SPUM\Retro UI Set\1_UI_Images\Theme1\02_Icons\0_Flat\Icon_Flat__17.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비율 값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,11 +143,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EnchantEfect1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum&lt;EnchantEfect1&gt;</t>
+    <t>EnchantEffect1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum&lt;EnchantEffect1&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnchantEffectValue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColortoBlack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Flat__17.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Flat__18.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Flat__19.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,7 +426,27 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -756,29 +792,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9E446B8-F257-43E4-B9B3-9F87AB0FA181}" name="표2_2" displayName="표2_2" ref="A2:D7" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9E446B8-F257-43E4-B9B3-9F87AB0FA181}" name="표2_2" displayName="표2_2" ref="A2:D7" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A2:D7" xr:uid="{74DD16FE-5A9E-4AB2-9606-9A7DEDCFE3FE}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{59FF4616-DC59-4BD4-89AF-AD9BC77BB752}" name="Enum 명" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{59FF4616-DC59-4BD4-89AF-AD9BC77BB752}" name="Enum 명" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{31E68743-F2C7-432C-979D-EF6E8870223C}" name="enum 종류"/>
-    <tableColumn id="5" xr3:uid="{551B61BC-F07B-43AE-836A-D77CB144012D}" name="InchantEfectValue1" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{04A045F8-4606-4755-A055-51883108A140}" name="설명" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{551B61BC-F07B-43AE-836A-D77CB144012D}" name="InchantEfectValue1" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{04A045F8-4606-4755-A055-51883108A140}" name="설명" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:G6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A3:G6" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{1390A1CE-5A9C-4475-BA4C-4253C6B568E9}" name="Description" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="EnchantEfect1" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="InchantEfectValue1" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="MaxCnt" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Icon" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:H6" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A3:H6" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{1390A1CE-5A9C-4475-BA4C-4253C6B568E9}" name="Description" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{4122053D-1CA2-42B5-8AFD-3552684325A6}" name="EnchantEffect1" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="EnchantEffectValue1" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="MaxCnt" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Icon" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{97F99EE9-35B5-4383-AF8B-C0BF06626A53}" name="ColortoBlack" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1083,134 +1120,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD93B019-5775-48EE-9E21-A3CA16DE20E9}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    </row>
+    <row r="4" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="16"/>
       <c r="C6" s="14"/>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" spans="1:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="15"/>
       <c r="C7" s="14"/>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="11"/>
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="6"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="13.25" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1227,25 +1264,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.0625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.3125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="3"/>
+    <col min="7" max="7" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1267,8 +1305,11 @@
       <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1279,7 +1320,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -1290,8 +1331,11 @@
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1302,10 +1346,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>5</v>
@@ -1313,8 +1357,11 @@
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="H3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>10001</v>
       </c>
@@ -1325,7 +1372,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2">
         <v>50</v>
@@ -1334,21 +1381,24 @@
         <v>99</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
+        <v>35</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>10002</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="2">
         <v>100</v>
@@ -1357,21 +1407,24 @@
         <v>99</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
+        <v>36</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>10003</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1380,7 +1433,10 @@
         <v>99</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/SkillEnchantData.xlsx
+++ b/Assets/ExcelDatas/SkillEnchantData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DE0350-3497-466A-A06E-4CB3AD153254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{02DE0350-3497-466A-A06E-4CB3AD153254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A1D1DB2-7CBA-47D8-9AEC-C139172CA2C9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="7" state="hidden" r:id="rId1"/>
@@ -785,10 +785,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1124,7 +1120,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
@@ -1133,7 +1129,7 @@
     <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -1147,7 +1143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="19" t="s">
         <v>22</v>
       </c>
@@ -1161,7 +1157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
@@ -1175,7 +1171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="12"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -1187,7 +1183,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="12"/>
       <c r="B5" s="2" t="s">
         <v>15</v>
@@ -1199,55 +1195,55 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="12"/>
       <c r="B6" s="16"/>
       <c r="C6" s="14"/>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="12"/>
       <c r="B7" s="15"/>
       <c r="C7" s="14"/>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="12"/>
       <c r="B8" s="11"/>
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="9"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="7"/>
       <c r="B10" s="6"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1267,10 +1263,10 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" style="2" bestFit="1" customWidth="1"/>
@@ -1283,7 +1279,7 @@
     <col min="9" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1309,7 +1305,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1335,7 +1331,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1361,9 +1357,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A4" s="2">
-        <v>10001</v>
+        <v>14000</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
@@ -1387,9 +1383,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A5" s="2">
-        <v>10002</v>
+        <v>14001</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
@@ -1413,9 +1409,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A6" s="2">
-        <v>10003</v>
+        <v>14002</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>14</v>

--- a/Assets/ExcelDatas/SkillEnchantData.xlsx
+++ b/Assets/ExcelDatas/SkillEnchantData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{02DE0350-3497-466A-A06E-4CB3AD153254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A1D1DB2-7CBA-47D8-9AEC-C139172CA2C9}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{02DE0350-3497-466A-A06E-4CB3AD153254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74E39422-08A9-487C-A565-56E97382ABEB}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="3000" yWindow="2220" windowWidth="18645" windowHeight="10695" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="7" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>ALL</t>
   </si>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{0}의 주문력을 {1}% 강화합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보충학습</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -176,6 +172,55 @@
   </si>
   <si>
     <t>Icon_Flat__19.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 주문력을 5% 강화합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의  사선 투사체가 추가 됩니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의  직선 투사체가 추가 됩니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon_Flat__20.png</t>
+  </si>
+  <si>
+    <t>Icon_Flat__21.png</t>
+  </si>
+  <si>
+    <t>Icon_Flat__22.png</t>
+  </si>
+  <si>
+    <t>{0}의 투사체 속도가 1 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사선타격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집중포화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddFrontProjectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddSlashProjectile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectileSpeedControl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -787,6 +832,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9E446B8-F257-43E4-B9B3-9F87AB0FA181}" name="표2_2" displayName="표2_2" ref="A2:D7" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A2:D7" xr:uid="{74DD16FE-5A9E-4AB2-9606-9A7DEDCFE3FE}"/>
@@ -801,8 +850,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:H6" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A3:H6" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:H9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A3:H9" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="6"/>
@@ -1131,68 +1180,68 @@
   <sheetData>
     <row r="1" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>19</v>
-      </c>
       <c r="D3" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="12"/>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="12"/>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
@@ -1260,17 +1309,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.625" style="2" bestFit="1" customWidth="1"/>
@@ -1281,7 +1330,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1302,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.6">
@@ -1316,7 +1365,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -1328,7 +1377,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.6">
@@ -1342,19 +1391,19 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.6">
@@ -1362,13 +1411,13 @@
         <v>14000</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2">
         <v>50</v>
@@ -1377,7 +1426,7 @@
         <v>99</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2" t="b">
         <v>1</v>
@@ -1388,13 +1437,13 @@
         <v>14001</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E5" s="2">
         <v>100</v>
@@ -1403,7 +1452,7 @@
         <v>99</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="2" t="b">
         <v>1</v>
@@ -1414,13 +1463,13 @@
         <v>14002</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1429,11 +1478,92 @@
         <v>99</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="2" t="b">
         <v>1</v>
       </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A7" s="2">
+        <v>14003</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>99</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A8" s="2">
+        <v>14004</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="A9" s="2">
+        <v>14005</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.6">
+      <c r="H10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ExcelDatas/SkillEnchantData.xlsx
+++ b/Assets/ExcelDatas/SkillEnchantData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{02DE0350-3497-466A-A06E-4CB3AD153254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74E39422-08A9-487C-A565-56E97382ABEB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED64B99-7B36-4C6D-BFDC-8A8F0F623358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="2220" windowWidth="18645" windowHeight="10695" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="9924" yWindow="2556" windowWidth="23040" windowHeight="12300" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="7" state="hidden" r:id="rId1"/>
@@ -163,18 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icon_Flat__17.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_Flat__18.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Icon_Flat__19.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{0}의 주문력을 5% 강화합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,15 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Icon_Flat__20.png</t>
-  </si>
-  <si>
-    <t>Icon_Flat__21.png</t>
-  </si>
-  <si>
-    <t>Icon_Flat__22.png</t>
-  </si>
-  <si>
     <t>{0}의 투사체 속도가 1 증가합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,6 +200,30 @@
   </si>
   <si>
     <t>ProjectileSpeedControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/0_Flat/Icon_Flat__19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/0_Flat/Icon_Flat__43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/0_Flat/Icon_Flat__4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/0_Flat/Icon_Flat__42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/0_Flat/Icon_Flat__17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/0_Flat/Icon_Flat__39</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1169,16 +1172,16 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1192,7 +1195,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
         <v>21</v>
       </c>
@@ -1206,7 +1209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
@@ -1220,7 +1223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="12"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -1232,7 +1235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="12"/>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -1244,55 +1247,55 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12"/>
       <c r="B6" s="16"/>
       <c r="C6" s="14"/>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="12"/>
       <c r="B7" s="15"/>
       <c r="C7" s="14"/>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="12"/>
       <c r="B8" s="11"/>
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="6"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1312,23 +1315,23 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="3"/>
+    <col min="1" max="1" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1354,7 +1357,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1380,7 +1383,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1406,7 +1409,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>14000</v>
       </c>
@@ -1414,7 +1417,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
@@ -1426,13 +1429,13 @@
         <v>99</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>14001</v>
       </c>
@@ -1452,13 +1455,13 @@
         <v>99</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H5" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>14002</v>
       </c>
@@ -1478,24 +1481,24 @@
         <v>99</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H6" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>14003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1504,24 +1507,24 @@
         <v>99</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H7" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>14004</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1530,39 +1533,39 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H8" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>14005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="H9" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H10" s="2"/>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/SkillEnchantData.xlsx
+++ b/Assets/ExcelDatas/SkillEnchantData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED64B99-7B36-4C6D-BFDC-8A8F0F623358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569469C9-B4AA-47FC-B32C-A2ECC2E5D76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9924" yWindow="2556" windowWidth="23040" windowHeight="12300" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="120" yWindow="4410" windowWidth="20595" windowHeight="13260" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="7" state="hidden" r:id="rId1"/>
@@ -167,14 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{0}의  사선 투사체가 추가 됩니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}의  직선 투사체가 추가 됩니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{0}의 투사체 속도가 1 증가합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,6 +216,14 @@
   </si>
   <si>
     <t>SPUM/0_Flat/Icon_Flat__39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 사선 투사체가 추가 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 직선 투사체가 추가 됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1172,16 +1172,16 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.69921875" style="1"/>
+    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>21</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -1235,7 +1235,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -1247,55 +1247,55 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="16"/>
       <c r="C6" s="14"/>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="15"/>
       <c r="C7" s="14"/>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="11"/>
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="6"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1315,23 +1315,23 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.69921875" style="3"/>
+    <col min="1" max="1" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>14000</v>
       </c>
@@ -1429,13 +1429,13 @@
         <v>99</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H4" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>14001</v>
       </c>
@@ -1455,13 +1455,13 @@
         <v>99</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H5" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>14002</v>
       </c>
@@ -1481,24 +1481,24 @@
         <v>99</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H6" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>14003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1507,24 +1507,24 @@
         <v>99</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H7" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>14004</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1533,24 +1533,24 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H8" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>14005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1559,13 +1559,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H10" s="2"/>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/SkillEnchantData.xlsx
+++ b/Assets/ExcelDatas/SkillEnchantData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569469C9-B4AA-47FC-B32C-A2ECC2E5D76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C60310-ACB2-4CD7-84F5-5D7008A5DFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="4410" windowWidth="20595" windowHeight="13260" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="7" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>ALL</t>
   </si>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{0}의 사거리가 1 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자가 보유중인 스킬 1개의 대미지가 증가합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -167,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{0}의 투사체 속도가 1 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소닉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,6 +216,18 @@
   </si>
   <si>
     <t>{0}의 직선 투사체가 추가 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 사거리가 10% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 투사체 속도가 10% 증가합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1172,16 +1176,16 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.75" style="1"/>
+    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1195,7 +1199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
         <v>21</v>
       </c>
@@ -1209,7 +1213,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
@@ -1220,10 +1224,10 @@
         <v>18</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="12"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -1232,10 +1236,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="12"/>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -1244,58 +1248,58 @@
         <v>18</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12"/>
       <c r="B6" s="16"/>
       <c r="C6" s="14"/>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="12"/>
       <c r="B7" s="15"/>
       <c r="C7" s="14"/>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="12"/>
       <c r="B8" s="11"/>
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="6"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1315,23 +1319,23 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="3"/>
+    <col min="1" max="1" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1354,10 +1358,10 @@
         <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1368,10 +1372,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -1380,10 +1384,10 @@
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1394,10 +1398,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>5</v>
@@ -1406,10 +1410,10 @@
         <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>14000</v>
       </c>
@@ -1417,25 +1421,25 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="2">
-        <v>50</v>
+        <v>0.05</v>
       </c>
       <c r="F4" s="2">
         <v>99</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>14001</v>
       </c>
@@ -1449,19 +1453,19 @@
         <v>12</v>
       </c>
       <c r="E5" s="2">
-        <v>100</v>
+        <v>0.1</v>
       </c>
       <c r="F5" s="2">
         <v>99</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H5" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>14002</v>
       </c>
@@ -1469,62 +1473,62 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F6" s="2">
         <v>99</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H6" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>14003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F7" s="2">
         <v>99</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H7" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>14004</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1533,24 +1537,24 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H8" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>14005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1559,13 +1563,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H9" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H10" s="2"/>
     </row>
   </sheetData>

--- a/Assets/ExcelDatas/SkillEnchantData.xlsx
+++ b/Assets/ExcelDatas/SkillEnchantData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C60310-ACB2-4CD7-84F5-5D7008A5DFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56871B8A-6EB7-4FE8-867D-BD692F1B940F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>ALL</t>
   </si>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{0}의 시전 속도가 10% 빨라집니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사용자가 보유중인 스킬 1개의 대미지가 증가합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,22 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ALL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColortoBlack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}의 주문력을 5% 강화합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소닉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,23 +191,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{0}의 사선 투사체가 추가 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}의 직선 투사체가 추가 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{0}의 사거리가 10% 증가합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}의 투사체 속도가 10% 증가합니다.</t>
+    <t>EnchantEffect1 인자값 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}: 해당 스킬의 SkillTable.Name   {1}: EnchantEffectValue1 * 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}: 해당 스킬의 SkillTable.Name   {1}: EnchantEffectValue1 * 100</t>
+  </si>
+  <si>
+    <t>{0}: 해당 스킬의 SkillTable.Name   {1}: EnchantEffectValue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회심의일격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 크리티컬 피해량을 {1}% 강화합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalDamageControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/0_Flat/Icon_Flat__34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기사도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 최대체력이 {1}% 강화합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FamiliarHealthControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPUM/0_Flat/Icon_Flat__47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 피해량을 {1}% 강화합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 공격속도가 {1}% 빨라집니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 사거리가 {1}% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 투사체 속도가 {1}% 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 사선 투사체가 {1}개 추가 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0}의 직선 투사체가 {1}개 추가 됩니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -857,8 +892,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:H9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A3:H9" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}" name="표2" displayName="표2" ref="A3:H11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A3:H11" xr:uid="{069061F9-1BA1-478D-A8D7-D7B6EB1F4CA2}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{513471B3-6400-4B91-8068-618BE05D815D}" name="Index" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{CD7519DA-C7A5-4013-9D1E-02930E6F874D}" name="Name" dataDxfId="6"/>
@@ -867,7 +902,7 @@
     <tableColumn id="8" xr3:uid="{13D1A4CE-9E82-4470-87CD-D2A704B7CD2A}" name="EnchantEffectValue1" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{B7AD7FD8-28E2-4355-88F1-CE089BC58766}" name="MaxCnt" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{42BF7FE9-CCC2-4EAA-9F39-2E4811328C82}" name="Icon" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{97F99EE9-35B5-4383-AF8B-C0BF06626A53}" name="ColortoBlack" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{D913F8DB-E671-45DC-9C0F-B425B9088FC9}" name="EnchantEffect1 인자값 설명" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1224,7 +1259,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
@@ -1236,7 +1271,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
@@ -1248,7 +1283,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
@@ -1316,22 +1351,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A9E828-B25D-49C6-B4AF-221979A45248}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="48.296875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
@@ -1358,7 +1393,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -1372,10 +1407,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -1384,7 +1419,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
@@ -1398,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>5</v>
@@ -1410,7 +1445,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -1421,22 +1456,22 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="2">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F4" s="2">
         <v>99</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="2" t="b">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1447,22 +1482,22 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F5" s="2">
         <v>99</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="2" t="b">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -1473,22 +1508,22 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F6" s="2">
         <v>99</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="2" t="b">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -1496,25 +1531,25 @@
         <v>14003</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E7" s="2">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F7" s="2">
         <v>99</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="H7" s="2" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1522,25 +1557,25 @@
         <v>14004</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="H8" s="2" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -1548,13 +1583,13 @@
         <v>14005</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1563,14 +1598,66 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="2" t="b">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="H10" s="2"/>
+      <c r="A10" s="2">
+        <v>14006</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>99</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
+        <v>14007</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>99</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H12" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/ExcelDatas/SkillEnchantData.xlsx
+++ b/Assets/ExcelDatas/SkillEnchantData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vcds1\Documents\GitHub\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ProjectGit\My project\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56871B8A-6EB7-4FE8-867D-BD692F1B940F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170E408B-92B1-4198-9BB3-931E58B7446D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00B68857-C6E1-4D98-82FE-3C4F502D76E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="7" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
   <si>
     <t>ALL</t>
   </si>
@@ -135,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum&lt;EnchantEffect1&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EnchantEffectValue1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ProjectileSpeedControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SPUM/0_Flat/Icon_Flat__19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,10 +210,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CriticalDamageControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SPUM/0_Flat/Icon_Flat__34</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FamiliarHealthControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SPUM/0_Flat/Icon_Flat__47</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,6 +247,34 @@
   </si>
   <si>
     <t>{0}의 직선 투사체가 {1}개 추가 됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum&lt;Status&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectileRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectileSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CriticalDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FamiliarHealth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDamageRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpeedRate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -874,10 +886,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E9E446B8-F257-43E4-B9B3-9F87AB0FA181}" name="표2_2" displayName="표2_2" ref="A2:D7" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="A2:D7" xr:uid="{74DD16FE-5A9E-4AB2-9606-9A7DEDCFE3FE}"/>
@@ -1211,16 +1219,16 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.69921875" style="1"/>
+    <col min="2" max="2" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1234,7 +1242,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>21</v>
       </c>
@@ -1248,7 +1256,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
@@ -1262,7 +1270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -1274,7 +1282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -1286,55 +1294,55 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
       <c r="B6" s="16"/>
       <c r="C6" s="14"/>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
       <c r="B7" s="15"/>
       <c r="C7" s="14"/>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12"/>
       <c r="B8" s="11"/>
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
     </row>
-    <row r="9" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="4"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="6"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" ht="13.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1354,23 +1362,23 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.09765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.8984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.69921875" style="3"/>
+    <col min="1" max="1" width="9.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1396,7 +1404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1407,10 +1415,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -1422,7 +1430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1436,7 +1444,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>5</v>
@@ -1445,10 +1453,10 @@
         <v>10</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>14000</v>
       </c>
@@ -1456,10 +1464,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2">
         <v>0.2</v>
@@ -1468,13 +1476,13 @@
         <v>99</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>14001</v>
       </c>
@@ -1482,10 +1490,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2">
         <v>0.2</v>
@@ -1494,13 +1502,13 @@
         <v>99</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>14002</v>
       </c>
@@ -1508,10 +1516,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2">
         <v>0.2</v>
@@ -1520,24 +1528,24 @@
         <v>99</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>14003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2">
         <v>0.2</v>
@@ -1546,24 +1554,24 @@
         <v>99</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>14004</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -1572,24 +1580,24 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>14005</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1598,24 +1606,24 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>14006</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2">
         <v>0.5</v>
@@ -1624,24 +1632,24 @@
         <v>99</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>14007</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E11" s="2">
         <v>0.2</v>
@@ -1650,13 +1658,13 @@
         <v>99</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H12" s="2"/>
     </row>
   </sheetData>
